--- a/data/MONTHLY AVERAGE CALL MONEY MARKET RATES (Weighted Average) (1).xlsx
+++ b/data/MONTHLY AVERAGE CALL MONEY MARKET RATES (Weighted Average) (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\ABID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DSE_CMR_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{400AB3E5-9DD4-40A8-AD7F-0D624E74F54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53939B77-675C-47B5-B762-3429A55EB911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1755" windowWidth="13425" windowHeight="14145" xr2:uid="{218A9999-8250-461A-B664-CCCBCD0BCB96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{218A9999-8250-461A-B664-CCCBCD0BCB96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,28 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">        Apr-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Jun-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Jul-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Aug-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Sep-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Oct-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Nov-12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">Month </t>
   </si>
@@ -221,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -230,9 +209,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -578,29 +554,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BAEFA9-B800-4AD4-9533-0238B218F3E5}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="K153" sqref="K153"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>39630</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>8.27</v>
       </c>
     </row>
@@ -608,7 +584,7 @@
       <c r="A3" s="3">
         <v>39661</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>9.8800000000000008</v>
       </c>
     </row>
@@ -616,7 +592,7 @@
       <c r="A4" s="3">
         <v>39692</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>9.89</v>
       </c>
     </row>
@@ -624,7 +600,7 @@
       <c r="A5" s="3">
         <v>39722</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>7.64</v>
       </c>
     </row>
@@ -632,7 +608,7 @@
       <c r="A6" s="3">
         <v>39753</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>7.56</v>
       </c>
     </row>
@@ -640,7 +616,7 @@
       <c r="A7" s="3">
         <v>39783</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>10.42</v>
       </c>
     </row>
@@ -648,7 +624,7 @@
       <c r="A8" s="3">
         <v>39814</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>9.82</v>
       </c>
     </row>
@@ -656,7 +632,7 @@
       <c r="A9" s="3">
         <v>39845</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>9.25</v>
       </c>
     </row>
@@ -664,7 +640,7 @@
       <c r="A10" s="3">
         <v>39873</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>8.31</v>
       </c>
     </row>
@@ -672,7 +648,7 @@
       <c r="A11" s="3">
         <v>39904</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>1.95</v>
       </c>
     </row>
@@ -680,7 +656,7 @@
       <c r="A12" s="3">
         <v>39934</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>3.28</v>
       </c>
     </row>
@@ -688,7 +664,7 @@
       <c r="A13" s="3">
         <v>39965</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>1.79</v>
       </c>
     </row>
@@ -696,7 +672,7 @@
       <c r="A14" s="3">
         <v>39995</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>1.08</v>
       </c>
     </row>
@@ -704,7 +680,7 @@
       <c r="A15" s="3">
         <v>40026</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>0.72</v>
       </c>
     </row>
@@ -712,7 +688,7 @@
       <c r="A16" s="3">
         <v>40057</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>4.3899999999999997</v>
       </c>
     </row>
@@ -720,7 +696,7 @@
       <c r="A17" s="3">
         <v>40087</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>2.82</v>
       </c>
     </row>
@@ -728,7 +704,7 @@
       <c r="A18" s="3">
         <v>40118</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>4.43</v>
       </c>
     </row>
@@ -736,7 +712,7 @@
       <c r="A19" s="3">
         <v>40148</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>5.05</v>
       </c>
     </row>
@@ -744,7 +720,7 @@
       <c r="A20" s="3">
         <v>40179</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>4.83</v>
       </c>
     </row>
@@ -752,7 +728,7 @@
       <c r="A21" s="3">
         <v>40210</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>4.51</v>
       </c>
     </row>
@@ -760,7 +736,7 @@
       <c r="A22" s="3">
         <v>40238</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>3.51</v>
       </c>
     </row>
@@ -768,7 +744,7 @@
       <c r="A23" s="3">
         <v>40269</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>4.3499999999999996</v>
       </c>
     </row>
@@ -776,7 +752,7 @@
       <c r="A24" s="3">
         <v>40299</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>5.07</v>
       </c>
     </row>
@@ -784,7 +760,7 @@
       <c r="A25" s="3">
         <v>40330</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>6.62</v>
       </c>
     </row>
@@ -792,7 +768,7 @@
       <c r="A26" s="3">
         <v>40360</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>3.33</v>
       </c>
     </row>
@@ -800,7 +776,7 @@
       <c r="A27" s="3">
         <v>40391</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>6.36</v>
       </c>
     </row>
@@ -808,7 +784,7 @@
       <c r="A28" s="3">
         <v>40422</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>6.97</v>
       </c>
     </row>
@@ -816,7 +792,7 @@
       <c r="A29" s="3">
         <v>40452</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>6.19</v>
       </c>
     </row>
@@ -824,7 +800,7 @@
       <c r="A30" s="3">
         <v>40483</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>11.38</v>
       </c>
     </row>
@@ -832,7 +808,7 @@
       <c r="A31" s="3">
         <v>40513</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>33.54</v>
       </c>
     </row>
@@ -840,7 +816,7 @@
       <c r="A32" s="3">
         <v>40544</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>11.64</v>
       </c>
     </row>
@@ -848,7 +824,7 @@
       <c r="A33" s="3">
         <v>40575</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>9.5399999999999991</v>
       </c>
     </row>
@@ -856,7 +832,7 @@
       <c r="A34" s="3">
         <v>40603</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>10.59</v>
       </c>
     </row>
@@ -864,7 +840,7 @@
       <c r="A35" s="3">
         <v>40634</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>9.98</v>
       </c>
     </row>
@@ -872,7 +848,7 @@
       <c r="A36" s="3">
         <v>40664</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>8.64</v>
       </c>
     </row>
@@ -880,7 +856,7 @@
       <c r="A37" s="3">
         <v>40695</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>10.93</v>
       </c>
     </row>
@@ -888,7 +864,7 @@
       <c r="A38" s="3">
         <v>40725</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>11.21</v>
       </c>
     </row>
@@ -896,7 +872,7 @@
       <c r="A39" s="3">
         <v>40756</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>12.02</v>
       </c>
     </row>
@@ -904,7 +880,7 @@
       <c r="A40" s="3">
         <v>40787</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>10.41</v>
       </c>
     </row>
@@ -912,7 +888,7 @@
       <c r="A41" s="3">
         <v>40817</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>9.77</v>
       </c>
     </row>
@@ -920,7 +896,7 @@
       <c r="A42" s="3">
         <v>40848</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>12.7</v>
       </c>
     </row>
@@ -928,7 +904,7 @@
       <c r="A43" s="3">
         <v>40878</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>17.149999999999999</v>
       </c>
     </row>
@@ -936,7 +912,7 @@
       <c r="A44" s="3">
         <v>40909</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>19.66</v>
       </c>
     </row>
@@ -944,7 +920,7 @@
       <c r="A45" s="3">
         <v>40940</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>18.18</v>
       </c>
     </row>
@@ -952,15 +928,15 @@
       <c r="A46" s="3">
         <v>40969</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>15.04</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="7">
+      <c r="A47" s="3">
+        <v>41000</v>
+      </c>
+      <c r="B47" s="6">
         <v>14.62</v>
       </c>
     </row>
@@ -968,55 +944,55 @@
       <c r="A48" s="3">
         <v>41030</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>15.03</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="7">
+      <c r="A49" s="3">
+        <v>41061</v>
+      </c>
+      <c r="B49" s="6">
         <v>11.2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="7">
+      <c r="A50" s="3">
+        <v>41091</v>
+      </c>
+      <c r="B50" s="6">
         <v>9.44</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="7">
+      <c r="A51" s="3">
+        <v>41122</v>
+      </c>
+      <c r="B51" s="6">
         <v>10.46</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="7">
+      <c r="A52" s="3">
+        <v>41153</v>
+      </c>
+      <c r="B52" s="6">
         <v>8.65</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="7">
+      <c r="A53" s="3">
+        <v>41183</v>
+      </c>
+      <c r="B53" s="6">
         <v>10.210000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="7">
+      <c r="A54" s="3">
+        <v>41214</v>
+      </c>
+      <c r="B54" s="6">
         <v>8.24</v>
       </c>
     </row>
@@ -1024,7 +1000,7 @@
       <c r="A55" s="3">
         <v>41244</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>9.09</v>
       </c>
     </row>
@@ -1032,7 +1008,7 @@
       <c r="A56" s="3">
         <v>41275</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>8.51</v>
       </c>
     </row>
@@ -1040,7 +1016,7 @@
       <c r="A57" s="3">
         <v>41306</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>8.4600000000000009</v>
       </c>
     </row>
@@ -1048,7 +1024,7 @@
       <c r="A58" s="3">
         <v>41334</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>7.24</v>
       </c>
     </row>
@@ -1056,7 +1032,7 @@
       <c r="A59" s="3">
         <v>41365</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>7.07</v>
       </c>
     </row>
@@ -1064,7 +1040,7 @@
       <c r="A60" s="3">
         <v>41395</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>7.17</v>
       </c>
     </row>
@@ -1072,7 +1048,7 @@
       <c r="A61" s="3">
         <v>41426</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>7.16</v>
       </c>
     </row>
@@ -1080,7 +1056,7 @@
       <c r="A62" s="3">
         <v>41456</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>7.64</v>
       </c>
     </row>
@@ -1088,7 +1064,7 @@
       <c r="A63" s="3">
         <v>41487</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>7.45</v>
       </c>
     </row>
@@ -1096,7 +1072,7 @@
       <c r="A64" s="3">
         <v>41518</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="9">
         <v>7.42</v>
       </c>
     </row>
@@ -1104,7 +1080,7 @@
       <c r="A65" s="3">
         <v>41548</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <v>7.37</v>
       </c>
     </row>
@@ -1112,7 +1088,7 @@
       <c r="A66" s="3">
         <v>41579</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>6.8</v>
       </c>
     </row>
@@ -1120,7 +1096,7 @@
       <c r="A67" s="3">
         <v>41609</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <v>7.34</v>
       </c>
     </row>
@@ -1128,7 +1104,7 @@
       <c r="A68" s="3">
         <v>41640</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <v>7.22</v>
       </c>
     </row>
@@ -1136,7 +1112,7 @@
       <c r="A69" s="3">
         <v>41671</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="9">
         <v>6.86</v>
       </c>
     </row>
@@ -1144,7 +1120,7 @@
       <c r="A70" s="3">
         <v>41699</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <v>7.46</v>
       </c>
     </row>
@@ -1152,7 +1128,7 @@
       <c r="A71" s="3">
         <v>41730</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="9">
         <v>7.45</v>
       </c>
     </row>
@@ -1160,7 +1136,7 @@
       <c r="A72" s="3">
         <v>41773</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="9">
         <v>6.37</v>
       </c>
     </row>
@@ -1168,7 +1144,7 @@
       <c r="A73" s="3">
         <v>41804</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73" s="10">
         <v>6.51</v>
       </c>
     </row>
@@ -1176,7 +1152,7 @@
       <c r="A74" s="3">
         <v>41834</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="9">
         <v>7.57</v>
       </c>
     </row>
@@ -1184,7 +1160,7 @@
       <c r="A75" s="3">
         <v>41865</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="10">
         <v>5.95</v>
       </c>
     </row>
@@ -1192,7 +1168,7 @@
       <c r="A76" s="3">
         <v>41896</v>
       </c>
-      <c r="B76" s="11">
+      <c r="B76" s="10">
         <v>7.46</v>
       </c>
     </row>
@@ -1200,7 +1176,7 @@
       <c r="A77" s="3">
         <v>41926</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77" s="10">
         <v>7.96</v>
       </c>
     </row>
@@ -1208,7 +1184,7 @@
       <c r="A78" s="3">
         <v>41944</v>
       </c>
-      <c r="B78" s="11">
+      <c r="B78" s="10">
         <v>7.57</v>
       </c>
     </row>
@@ -1216,7 +1192,7 @@
       <c r="A79" s="3">
         <v>41987</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B79" s="10">
         <v>9.2200000000000006</v>
       </c>
     </row>
@@ -1224,7 +1200,7 @@
       <c r="A80" s="3">
         <v>42030</v>
       </c>
-      <c r="B80" s="11">
+      <c r="B80" s="10">
         <v>8.4700000000000006</v>
       </c>
     </row>
@@ -1232,7 +1208,7 @@
       <c r="A81" s="3">
         <v>42036</v>
       </c>
-      <c r="B81" s="11">
+      <c r="B81" s="10">
         <v>7.92</v>
       </c>
     </row>
@@ -1240,7 +1216,7 @@
       <c r="A82" s="3">
         <v>42064</v>
       </c>
-      <c r="B82" s="11">
+      <c r="B82" s="10">
         <v>7.75</v>
       </c>
     </row>
@@ -1248,7 +1224,7 @@
       <c r="A83" s="3">
         <v>42095</v>
       </c>
-      <c r="B83" s="11">
+      <c r="B83" s="10">
         <v>7.38</v>
       </c>
     </row>
@@ -1256,7 +1232,7 @@
       <c r="A84" s="3">
         <v>42125</v>
       </c>
-      <c r="B84" s="11">
+      <c r="B84" s="10">
         <v>6.5</v>
       </c>
     </row>
@@ -1264,7 +1240,7 @@
       <c r="A85" s="3">
         <v>42156</v>
       </c>
-      <c r="B85" s="11">
+      <c r="B85" s="10">
         <v>5.75</v>
       </c>
     </row>
@@ -1272,7 +1248,7 @@
       <c r="A86" s="3">
         <v>42186</v>
       </c>
-      <c r="B86" s="11">
+      <c r="B86" s="10">
         <v>5.7</v>
       </c>
     </row>
@@ -1280,7 +1256,7 @@
       <c r="A87" s="3">
         <v>42217</v>
       </c>
-      <c r="B87" s="11">
+      <c r="B87" s="10">
         <v>5.63</v>
       </c>
     </row>
@@ -1288,7 +1264,7 @@
       <c r="A88" s="3">
         <v>42248</v>
       </c>
-      <c r="B88" s="11">
+      <c r="B88" s="10">
         <v>5.67</v>
       </c>
     </row>
@@ -1296,7 +1272,7 @@
       <c r="A89" s="3">
         <v>42278</v>
       </c>
-      <c r="B89" s="11">
+      <c r="B89" s="10">
         <v>4.83</v>
       </c>
     </row>
@@ -1304,7 +1280,7 @@
       <c r="A90" s="3">
         <v>42309</v>
       </c>
-      <c r="B90" s="11">
+      <c r="B90" s="10">
         <v>3.8</v>
       </c>
     </row>
@@ -1312,7 +1288,7 @@
       <c r="A91" s="3">
         <v>42339</v>
       </c>
-      <c r="B91" s="11">
+      <c r="B91" s="10">
         <v>3.49</v>
       </c>
     </row>
@@ -1320,7 +1296,7 @@
       <c r="A92" s="3">
         <v>42370</v>
       </c>
-      <c r="B92" s="11">
+      <c r="B92" s="10">
         <v>3.49</v>
       </c>
     </row>
@@ -1328,7 +1304,7 @@
       <c r="A93" s="3">
         <v>42401</v>
       </c>
-      <c r="B93" s="11">
+      <c r="B93" s="10">
         <v>3.74</v>
       </c>
     </row>
@@ -1336,7 +1312,7 @@
       <c r="A94" s="3">
         <v>42430</v>
       </c>
-      <c r="B94" s="11">
+      <c r="B94" s="10">
         <v>3.73</v>
       </c>
     </row>
@@ -1344,7 +1320,7 @@
       <c r="A95" s="3">
         <v>42461</v>
       </c>
-      <c r="B95" s="11">
+      <c r="B95" s="10">
         <v>3.68</v>
       </c>
     </row>
@@ -1352,7 +1328,7 @@
       <c r="A96" s="3">
         <v>42491</v>
       </c>
-      <c r="B96" s="11">
+      <c r="B96" s="10">
         <v>3.63</v>
       </c>
     </row>
@@ -1360,7 +1336,7 @@
       <c r="A97" s="3">
         <v>42522</v>
       </c>
-      <c r="B97" s="11">
+      <c r="B97" s="10">
         <v>3.74</v>
       </c>
     </row>
@@ -1368,7 +1344,7 @@
       <c r="A98" s="3">
         <v>42552</v>
       </c>
-      <c r="B98" s="11">
+      <c r="B98" s="10">
         <v>3.67</v>
       </c>
     </row>
@@ -1376,7 +1352,7 @@
       <c r="A99" s="3">
         <v>42583</v>
       </c>
-      <c r="B99" s="11">
+      <c r="B99" s="10">
         <v>3.59</v>
       </c>
     </row>
@@ -1384,7 +1360,7 @@
       <c r="A100" s="3">
         <v>42614</v>
       </c>
-      <c r="B100" s="11">
+      <c r="B100" s="10">
         <v>3.54</v>
       </c>
     </row>
@@ -1392,7 +1368,7 @@
       <c r="A101" s="3">
         <v>42644</v>
       </c>
-      <c r="B101" s="11">
+      <c r="B101" s="10">
         <v>3.56</v>
       </c>
     </row>
@@ -1400,7 +1376,7 @@
       <c r="A102" s="3">
         <v>42675</v>
       </c>
-      <c r="B102" s="11">
+      <c r="B102" s="10">
         <v>3.58</v>
       </c>
     </row>
@@ -1408,7 +1384,7 @@
       <c r="A103" s="3">
         <v>42705</v>
       </c>
-      <c r="B103" s="11">
+      <c r="B103" s="10">
         <v>3.73</v>
       </c>
     </row>
@@ -1416,7 +1392,7 @@
       <c r="A104" s="3">
         <v>42736</v>
       </c>
-      <c r="B104" s="11">
+      <c r="B104" s="10">
         <v>3.5</v>
       </c>
     </row>
@@ -1424,7 +1400,7 @@
       <c r="A105" s="3">
         <v>42767</v>
       </c>
-      <c r="B105" s="11">
+      <c r="B105" s="10">
         <v>3.58</v>
       </c>
     </row>
@@ -1432,7 +1408,7 @@
       <c r="A106" s="3">
         <v>42795</v>
       </c>
-      <c r="B106" s="11">
+      <c r="B106" s="10">
         <v>3.76</v>
       </c>
     </row>
@@ -1440,7 +1416,7 @@
       <c r="A107" s="3">
         <v>42826</v>
       </c>
-      <c r="B107" s="11">
+      <c r="B107" s="10">
         <v>3.8</v>
       </c>
     </row>
@@ -1448,7 +1424,7 @@
       <c r="A108" s="3">
         <v>42856</v>
       </c>
-      <c r="B108" s="11">
+      <c r="B108" s="10">
         <v>3.86</v>
       </c>
     </row>
@@ -1456,7 +1432,7 @@
       <c r="A109" s="3">
         <v>42887</v>
       </c>
-      <c r="B109" s="11">
+      <c r="B109" s="10">
         <v>4.03</v>
       </c>
     </row>
@@ -1464,7 +1440,7 @@
       <c r="A110" s="3">
         <v>42917</v>
       </c>
-      <c r="B110" s="11">
+      <c r="B110" s="10">
         <v>3.6</v>
       </c>
     </row>
@@ -1472,7 +1448,7 @@
       <c r="A111" s="3">
         <v>42948</v>
       </c>
-      <c r="B111" s="11">
+      <c r="B111" s="10">
         <v>4.0599999999999996</v>
       </c>
     </row>
@@ -1480,7 +1456,7 @@
       <c r="A112" s="3">
         <v>42979</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="6">
         <v>3.86</v>
       </c>
     </row>
@@ -1488,7 +1464,7 @@
       <c r="A113" s="3">
         <v>43009</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="6">
         <v>3.84</v>
       </c>
     </row>
@@ -1496,7 +1472,7 @@
       <c r="A114" s="3">
         <v>43040</v>
       </c>
-      <c r="B114" s="12">
+      <c r="B114" s="11">
         <v>3.83</v>
       </c>
     </row>
@@ -1504,7 +1480,7 @@
       <c r="A115" s="3">
         <v>43070</v>
       </c>
-      <c r="B115" s="12">
+      <c r="B115" s="11">
         <v>3.92</v>
       </c>
     </row>
@@ -1512,7 +1488,7 @@
       <c r="A116" s="3">
         <v>43101</v>
       </c>
-      <c r="B116" s="12">
+      <c r="B116" s="11">
         <v>3.92</v>
       </c>
     </row>
@@ -1520,7 +1496,7 @@
       <c r="A117" s="3">
         <v>43132</v>
       </c>
-      <c r="B117" s="12">
+      <c r="B117" s="11">
         <v>4.28</v>
       </c>
     </row>
@@ -1528,7 +1504,7 @@
       <c r="A118" s="3">
         <v>43160</v>
       </c>
-      <c r="B118" s="12">
+      <c r="B118" s="11">
         <v>4.5599999999999996</v>
       </c>
     </row>
@@ -1536,7 +1512,7 @@
       <c r="A119" s="3">
         <v>43191</v>
       </c>
-      <c r="B119" s="5">
+      <c r="B119" s="4">
         <v>3.13</v>
       </c>
     </row>
@@ -1544,7 +1520,7 @@
       <c r="A120" s="3">
         <v>43221</v>
       </c>
-      <c r="B120" s="12">
+      <c r="B120" s="11">
         <v>3.19</v>
       </c>
     </row>
@@ -1552,7 +1528,7 @@
       <c r="A121" s="3">
         <v>43252</v>
       </c>
-      <c r="B121" s="12">
+      <c r="B121" s="11">
         <v>2.77</v>
       </c>
     </row>
@@ -1560,7 +1536,7 @@
       <c r="A122" s="3">
         <v>43282</v>
       </c>
-      <c r="B122" s="12">
+      <c r="B122" s="11">
         <v>1.65</v>
       </c>
     </row>
@@ -1568,7 +1544,7 @@
       <c r="A123" s="3">
         <v>43313</v>
       </c>
-      <c r="B123" s="12">
+      <c r="B123" s="11">
         <v>4.34</v>
       </c>
     </row>
@@ -1576,7 +1552,7 @@
       <c r="A124" s="3">
         <v>43344</v>
       </c>
-      <c r="B124" s="12">
+      <c r="B124" s="11">
         <v>4.0199999999999996</v>
       </c>
     </row>
@@ -1584,7 +1560,7 @@
       <c r="A125" s="3">
         <v>43374</v>
       </c>
-      <c r="B125" s="12">
+      <c r="B125" s="11">
         <v>3.32</v>
       </c>
     </row>
@@ -1592,7 +1568,7 @@
       <c r="A126" s="3">
         <v>43405</v>
       </c>
-      <c r="B126" s="12">
+      <c r="B126" s="11">
         <v>3.66</v>
       </c>
     </row>
@@ -1600,7 +1576,7 @@
       <c r="A127" s="3">
         <v>43435</v>
       </c>
-      <c r="B127" s="12">
+      <c r="B127" s="11">
         <v>4.6100000000000003</v>
       </c>
     </row>
@@ -1608,7 +1584,7 @@
       <c r="A128" s="3">
         <v>43466</v>
       </c>
-      <c r="B128" s="12">
+      <c r="B128" s="11">
         <v>4.41</v>
       </c>
     </row>
@@ -1616,7 +1592,7 @@
       <c r="A129" s="3">
         <v>43497</v>
       </c>
-      <c r="B129" s="12">
+      <c r="B129" s="11">
         <v>4.4800000000000004</v>
       </c>
     </row>
@@ -1624,7 +1600,7 @@
       <c r="A130" s="3">
         <v>43525</v>
       </c>
-      <c r="B130" s="12">
+      <c r="B130" s="11">
         <v>4.53</v>
       </c>
     </row>
@@ -1632,7 +1608,7 @@
       <c r="A131" s="3">
         <v>43556</v>
       </c>
-      <c r="B131" s="12">
+      <c r="B131" s="11">
         <v>4.53</v>
       </c>
     </row>
@@ -1640,7 +1616,7 @@
       <c r="A132" s="3">
         <v>43586</v>
       </c>
-      <c r="B132" s="12">
+      <c r="B132" s="11">
         <v>4.59</v>
       </c>
     </row>
@@ -1648,7 +1624,7 @@
       <c r="A133" s="3">
         <v>43617</v>
       </c>
-      <c r="B133" s="12">
+      <c r="B133" s="11">
         <v>4.54</v>
       </c>
     </row>
@@ -1656,7 +1632,7 @@
       <c r="A134" s="3">
         <v>43647</v>
       </c>
-      <c r="B134" s="12">
+      <c r="B134" s="11">
         <v>4.46</v>
       </c>
     </row>
@@ -1664,7 +1640,7 @@
       <c r="A135" s="3">
         <v>43678</v>
       </c>
-      <c r="B135" s="12">
+      <c r="B135" s="11">
         <v>4.6100000000000003</v>
       </c>
     </row>
@@ -1672,7 +1648,7 @@
       <c r="A136" s="3">
         <v>43709</v>
       </c>
-      <c r="B136" s="12">
+      <c r="B136" s="11">
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -1680,7 +1656,7 @@
       <c r="A137" s="3">
         <v>43739</v>
       </c>
-      <c r="B137" s="12">
+      <c r="B137" s="11">
         <v>3.61</v>
       </c>
     </row>
@@ -1688,7 +1664,7 @@
       <c r="A138" s="3">
         <v>43770</v>
       </c>
-      <c r="B138" s="12">
+      <c r="B138" s="11">
         <v>3.85</v>
       </c>
     </row>
@@ -1696,7 +1672,7 @@
       <c r="A139" s="3">
         <v>43800</v>
       </c>
-      <c r="B139" s="12">
+      <c r="B139" s="11">
         <v>5.07</v>
       </c>
     </row>
@@ -1704,7 +1680,7 @@
       <c r="A140" s="3">
         <v>43831</v>
       </c>
-      <c r="B140" s="12">
+      <c r="B140" s="11">
         <v>4.84</v>
       </c>
     </row>
@@ -1712,7 +1688,7 @@
       <c r="A141" s="3">
         <v>43862</v>
       </c>
-      <c r="B141" s="7">
+      <c r="B141" s="6">
         <v>5.0599999999999996</v>
       </c>
     </row>
@@ -1720,7 +1696,7 @@
       <c r="A142" s="3">
         <v>43891</v>
       </c>
-      <c r="B142" s="7">
+      <c r="B142" s="6">
         <v>5.14</v>
       </c>
     </row>
@@ -1728,7 +1704,7 @@
       <c r="A143" s="3">
         <v>43922</v>
       </c>
-      <c r="B143" s="12">
+      <c r="B143" s="11">
         <v>4.8899999999999997</v>
       </c>
     </row>
@@ -1736,7 +1712,7 @@
       <c r="A144" s="3">
         <v>43952</v>
       </c>
-      <c r="B144" s="10">
+      <c r="B144" s="9">
         <v>4.97</v>
       </c>
     </row>
@@ -1744,7 +1720,7 @@
       <c r="A145" s="3">
         <v>43983</v>
       </c>
-      <c r="B145" s="5">
+      <c r="B145" s="4">
         <v>5.01</v>
       </c>
     </row>
@@ -1752,7 +1728,7 @@
       <c r="A146" s="3">
         <v>44013</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B146" s="4">
         <v>4.2300000000000004</v>
       </c>
     </row>
@@ -1760,7 +1736,7 @@
       <c r="A147" s="3">
         <v>44044</v>
       </c>
-      <c r="B147" s="13">
+      <c r="B147" s="12">
         <v>4.7</v>
       </c>
     </row>
@@ -1768,7 +1744,7 @@
       <c r="A148" s="3">
         <v>44075</v>
       </c>
-      <c r="B148" s="5">
+      <c r="B148" s="4">
         <v>2.87</v>
       </c>
     </row>
@@ -1776,7 +1752,7 @@
       <c r="A149" s="3">
         <v>44105</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B149" s="4">
         <v>2.61</v>
       </c>
     </row>
@@ -1784,7 +1760,7 @@
       <c r="A150" s="3">
         <v>44136</v>
       </c>
-      <c r="B150" s="13">
+      <c r="B150" s="12">
         <v>2</v>
       </c>
     </row>
@@ -1792,7 +1768,7 @@
       <c r="A151" s="3">
         <v>44166</v>
       </c>
-      <c r="B151" s="5">
+      <c r="B151" s="4">
         <v>1.79</v>
       </c>
     </row>
@@ -1800,7 +1776,7 @@
       <c r="A152" s="3">
         <v>44223</v>
       </c>
-      <c r="B152" s="5">
+      <c r="B152" s="4">
         <v>1.78</v>
       </c>
     </row>
@@ -1808,7 +1784,7 @@
       <c r="A153" s="3">
         <v>44254</v>
       </c>
-      <c r="B153" s="12">
+      <c r="B153" s="11">
         <v>1.67</v>
       </c>
     </row>
@@ -1816,7 +1792,7 @@
       <c r="A154" s="3">
         <v>44282</v>
       </c>
-      <c r="B154" s="5">
+      <c r="B154" s="4">
         <v>1.82</v>
       </c>
     </row>
@@ -1824,7 +1800,7 @@
       <c r="A155" s="3">
         <v>44313</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B155" s="4">
         <v>1.68</v>
       </c>
     </row>
@@ -1832,7 +1808,7 @@
       <c r="A156" s="3">
         <v>44343</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B156" s="4">
         <v>2.08</v>
       </c>
     </row>
@@ -1840,7 +1816,7 @@
       <c r="A157" s="3">
         <v>44374</v>
       </c>
-      <c r="B157" s="5">
+      <c r="B157" s="4">
         <v>2.25</v>
       </c>
     </row>
@@ -1848,7 +1824,7 @@
       <c r="A158" s="3">
         <v>44404</v>
       </c>
-      <c r="B158" s="5">
+      <c r="B158" s="4">
         <v>2.2200000000000002</v>
       </c>
     </row>
@@ -1856,7 +1832,7 @@
       <c r="A159" s="3">
         <v>44435</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B159" s="4">
         <v>1.79</v>
       </c>
     </row>
@@ -1864,7 +1840,7 @@
       <c r="A160" s="3">
         <v>44466</v>
       </c>
-      <c r="B160" s="13">
+      <c r="B160" s="12">
         <v>1.9</v>
       </c>
     </row>
@@ -1872,7 +1848,7 @@
       <c r="A161" s="3">
         <v>44496</v>
       </c>
-      <c r="B161" s="5">
+      <c r="B161" s="4">
         <v>2.25</v>
       </c>
     </row>
@@ -1880,7 +1856,7 @@
       <c r="A162" s="3">
         <v>44527</v>
       </c>
-      <c r="B162" s="5">
+      <c r="B162" s="4">
         <v>3.15</v>
       </c>
     </row>
@@ -1888,7 +1864,7 @@
       <c r="A163" s="3">
         <v>44557</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B163" s="4">
         <v>2.66</v>
       </c>
     </row>
@@ -1896,7 +1872,7 @@
       <c r="A164" s="3">
         <v>44588</v>
       </c>
-      <c r="B164" s="5">
+      <c r="B164" s="4">
         <v>2.4300000000000002</v>
       </c>
     </row>
@@ -1904,7 +1880,7 @@
       <c r="A165" s="3">
         <v>44619</v>
       </c>
-      <c r="B165" s="13">
+      <c r="B165" s="12">
         <v>2.8</v>
       </c>
     </row>
@@ -1912,7 +1888,7 @@
       <c r="A166" s="3">
         <v>44647</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B166" s="4">
         <v>2.66</v>
       </c>
     </row>
@@ -1920,7 +1896,7 @@
       <c r="A167" s="3">
         <v>44678</v>
       </c>
-      <c r="B167" s="5">
+      <c r="B167" s="4">
         <v>4.58</v>
       </c>
     </row>
@@ -1928,7 +1904,7 @@
       <c r="A168" s="3">
         <v>44708</v>
       </c>
-      <c r="B168" s="5">
+      <c r="B168" s="4">
         <v>4.7300000000000004</v>
       </c>
     </row>
@@ -1936,7 +1912,7 @@
       <c r="A169" s="3">
         <v>44739</v>
       </c>
-      <c r="B169" s="5">
+      <c r="B169" s="4">
         <v>4.88</v>
       </c>
     </row>
@@ -1944,7 +1920,7 @@
       <c r="A170" s="3">
         <v>44769</v>
       </c>
-      <c r="B170" s="5">
+      <c r="B170" s="4">
         <v>5.34</v>
       </c>
     </row>
@@ -1952,7 +1928,7 @@
       <c r="A171" s="3">
         <v>44800</v>
       </c>
-      <c r="B171" s="5">
+      <c r="B171" s="4">
         <v>5.49</v>
       </c>
     </row>
@@ -1960,7 +1936,7 @@
       <c r="A172" s="3">
         <v>44831</v>
       </c>
-      <c r="B172" s="5">
+      <c r="B172" s="4">
         <v>5.53</v>
       </c>
     </row>
@@ -1968,7 +1944,7 @@
       <c r="A173" s="3">
         <v>44861</v>
       </c>
-      <c r="B173" s="5">
+      <c r="B173" s="4">
         <v>5.79</v>
       </c>
     </row>
@@ -1976,7 +1952,7 @@
       <c r="A174" s="3">
         <v>44892</v>
       </c>
-      <c r="B174" s="13">
+      <c r="B174" s="12">
         <v>5.8</v>
       </c>
     </row>
@@ -1984,7 +1960,7 @@
       <c r="A175" s="3">
         <v>44922</v>
       </c>
-      <c r="B175" s="13">
+      <c r="B175" s="12">
         <v>5.8</v>
       </c>
     </row>
@@ -1992,7 +1968,7 @@
       <c r="A176" s="3">
         <v>44953</v>
       </c>
-      <c r="B176" s="5">
+      <c r="B176" s="4">
         <v>6.66</v>
       </c>
     </row>
@@ -2000,7 +1976,7 @@
       <c r="A177" s="3">
         <v>44984</v>
       </c>
-      <c r="B177" s="5">
+      <c r="B177" s="4">
         <v>6.15</v>
       </c>
     </row>
@@ -2008,7 +1984,7 @@
       <c r="A178" s="3">
         <v>45012</v>
       </c>
-      <c r="B178" s="5">
+      <c r="B178" s="4">
         <v>6.03</v>
       </c>
     </row>
@@ -2016,7 +1992,7 @@
       <c r="A179" s="3">
         <v>45043</v>
       </c>
-      <c r="B179" s="5">
+      <c r="B179" s="4">
         <v>6.04</v>
       </c>
     </row>
@@ -2024,7 +2000,7 @@
       <c r="A180" s="3">
         <v>45073</v>
       </c>
-      <c r="B180" s="5">
+      <c r="B180" s="4">
         <v>6.03</v>
       </c>
     </row>
@@ -2032,7 +2008,7 @@
       <c r="A181" s="3">
         <v>45104</v>
       </c>
-      <c r="B181" s="5">
+      <c r="B181" s="4">
         <v>6.06</v>
       </c>
     </row>
@@ -2040,7 +2016,7 @@
       <c r="A182" s="3">
         <v>45134</v>
       </c>
-      <c r="B182" s="13">
+      <c r="B182" s="12">
         <v>6.3</v>
       </c>
     </row>
@@ -2048,7 +2024,7 @@
       <c r="A183" s="3">
         <v>45165</v>
       </c>
-      <c r="B183" s="5">
+      <c r="B183" s="4">
         <v>6.28</v>
       </c>
     </row>
@@ -2056,7 +2032,7 @@
       <c r="A184" s="3">
         <v>45196</v>
       </c>
-      <c r="B184" s="5">
+      <c r="B184" s="4">
         <v>6.41</v>
       </c>
     </row>
@@ -2064,7 +2040,7 @@
       <c r="A185" s="3">
         <v>45226</v>
       </c>
-      <c r="B185" s="5">
+      <c r="B185" s="4">
         <v>7.35</v>
       </c>
     </row>
@@ -2072,7 +2048,7 @@
       <c r="A186" s="3">
         <v>45257</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B186" s="4">
         <v>8.0299999999999994</v>
       </c>
     </row>
@@ -2080,7 +2056,7 @@
       <c r="A187" s="3">
         <v>45287</v>
       </c>
-      <c r="B187" s="5">
+      <c r="B187" s="4">
         <v>8.84</v>
       </c>
     </row>
@@ -2088,7 +2064,7 @@
       <c r="A188" s="3">
         <v>45318</v>
       </c>
-      <c r="B188" s="5">
+      <c r="B188" s="4">
         <v>9.3800000000000008</v>
       </c>
     </row>
@@ -2096,7 +2072,7 @@
       <c r="A189" s="3">
         <v>45349</v>
       </c>
-      <c r="B189" s="5">
+      <c r="B189" s="4">
         <v>9.3000000000000007</v>
       </c>
     </row>
@@ -2104,7 +2080,7 @@
       <c r="A190" s="3">
         <v>45378</v>
       </c>
-      <c r="B190" s="5">
+      <c r="B190" s="4">
         <v>8.75</v>
       </c>
     </row>
@@ -2112,7 +2088,7 @@
       <c r="A191" s="3">
         <v>45409</v>
       </c>
-      <c r="B191" s="5">
+      <c r="B191" s="4">
         <v>8.81</v>
       </c>
     </row>
@@ -2120,7 +2096,7 @@
       <c r="A192" s="3">
         <v>45439</v>
       </c>
-      <c r="B192" s="5">
+      <c r="B192" s="4">
         <v>9.08</v>
       </c>
     </row>
@@ -2128,7 +2104,7 @@
       <c r="A193" s="3">
         <v>45470</v>
       </c>
-      <c r="B193" s="5">
+      <c r="B193" s="4">
         <v>9.08</v>
       </c>
     </row>
@@ -2136,7 +2112,7 @@
       <c r="A194" s="3">
         <v>45500</v>
       </c>
-      <c r="B194" s="5">
+      <c r="B194" s="4">
         <v>8.86</v>
       </c>
     </row>
@@ -2144,7 +2120,7 @@
       <c r="A195" s="3">
         <v>45531</v>
       </c>
-      <c r="B195" s="5">
+      <c r="B195" s="4">
         <v>8.7799999999999994</v>
       </c>
     </row>
@@ -2152,7 +2128,7 @@
       <c r="A196" s="3">
         <v>45562</v>
       </c>
-      <c r="B196" s="5">
+      <c r="B196" s="4">
         <v>9.14</v>
       </c>
     </row>
@@ -2160,7 +2136,7 @@
       <c r="A197" s="3">
         <v>45592</v>
       </c>
-      <c r="B197" s="5">
+      <c r="B197" s="4">
         <v>9.66</v>
       </c>
     </row>
@@ -2168,7 +2144,7 @@
       <c r="A198" s="3">
         <v>45623</v>
       </c>
-      <c r="B198" s="5">
+      <c r="B198" s="4">
         <v>9.99</v>
       </c>
     </row>
@@ -2176,7 +2152,7 @@
       <c r="A199" s="3">
         <v>45653</v>
       </c>
-      <c r="B199" s="5">
+      <c r="B199" s="4">
         <v>10.07</v>
       </c>
     </row>
@@ -2184,7 +2160,7 @@
       <c r="A200" s="3">
         <v>45684</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B200" s="4">
         <v>10.08</v>
       </c>
     </row>
@@ -2192,7 +2168,7 @@
       <c r="A201" s="3">
         <v>45715</v>
       </c>
-      <c r="B201" s="5">
+      <c r="B201" s="4">
         <v>10.050000000000001</v>
       </c>
     </row>
